--- a/Assignment5/Q1 table.xlsx
+++ b/Assignment5/Q1 table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFolder\Courses\CS6140 Machine Learning\Assignments\Assignment5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7C2FE5-7959-4133-9CA4-96D24A7D6207}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A67CE31-AB3C-446D-953F-E78CEC35576A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{30B91BCD-A653-4274-B0F2-893565FC06C1}"/>
+    <workbookView xWindow="5760" yWindow="1968" windowWidth="17280" windowHeight="8994" xr2:uid="{30B91BCD-A653-4274-B0F2-893565FC06C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
   <si>
     <t>Accuracy</t>
   </si>
@@ -58,96 +58,21 @@
     <t>Concept B</t>
   </si>
   <si>
-    <t>74.1 +- 1.4</t>
-  </si>
-  <si>
-    <t>61.2 +- 1.8</t>
-  </si>
-  <si>
-    <t>74.3 +- 1.6</t>
-  </si>
-  <si>
-    <t>59.8 +-1.8</t>
-  </si>
-  <si>
-    <t>81.5 +- 1.4</t>
-  </si>
-  <si>
-    <t>84.0 +- 1.4</t>
-  </si>
-  <si>
-    <t>81.2 +- 1.1</t>
-  </si>
-  <si>
-    <t>85.2 +- 1.0</t>
-  </si>
-  <si>
     <t>81.1 +- 1.2</t>
   </si>
   <si>
-    <t>87.6 +- 1.1</t>
-  </si>
-  <si>
-    <t>81.9 +- 1.2</t>
-  </si>
-  <si>
-    <t>90.1 +- 0.9</t>
-  </si>
-  <si>
-    <t>97.7 +- 0.5</t>
-  </si>
-  <si>
-    <t>99.7 +- 0.1</t>
-  </si>
-  <si>
-    <t>96.8 +- 0.6</t>
-  </si>
-  <si>
-    <t>50.9 +- 4.8</t>
-  </si>
-  <si>
     <t>96.8 +- 0.5</t>
   </si>
   <si>
-    <t>54.1 +- 5.3</t>
-  </si>
-  <si>
-    <t>65.0 +- 4.6</t>
-  </si>
-  <si>
     <t>96.9 +- 0.5</t>
   </si>
   <si>
-    <t>78.2 +- 3.6</t>
-  </si>
-  <si>
-    <t>59.5 +- 5.4</t>
-  </si>
-  <si>
-    <t>84.4 +- 2.4</t>
-  </si>
-  <si>
-    <t>94.9 +- 0.2</t>
-  </si>
-  <si>
-    <t>98.9 +- 0.1</t>
-  </si>
-  <si>
-    <t>97.0 +- 0.2</t>
-  </si>
-  <si>
-    <t>96.5 +- 0.3</t>
-  </si>
-  <si>
     <t>Problem 2a</t>
   </si>
   <si>
     <t>Problem 2b</t>
   </si>
   <si>
-    <t>95.6 +- 0.3</t>
-  </si>
-  <si>
     <t>54.8 +- 3.5</t>
   </si>
   <si>
@@ -260,6 +185,93 @@
   </si>
   <si>
     <t>92.1 +- 0.9</t>
+  </si>
+  <si>
+    <t>70.0 +- 1.5</t>
+  </si>
+  <si>
+    <t>56.7 +- 1.6</t>
+  </si>
+  <si>
+    <t>70.1 +- 1.3</t>
+  </si>
+  <si>
+    <t>56.3 +- 1.8</t>
+  </si>
+  <si>
+    <t>76.4 +- 1.5</t>
+  </si>
+  <si>
+    <t>83.7 +- 1.3</t>
+  </si>
+  <si>
+    <t>79.1 +- 1.4</t>
+  </si>
+  <si>
+    <t>83.8 +- 1.4</t>
+  </si>
+  <si>
+    <t>79.4 +- 1.4</t>
+  </si>
+  <si>
+    <t>88.5 +- 1.1</t>
+  </si>
+  <si>
+    <t>79.7 +- 1.2</t>
+  </si>
+  <si>
+    <t>89.2 +- 1.0</t>
+  </si>
+  <si>
+    <t>94.8 +- 0.2</t>
+  </si>
+  <si>
+    <t>98.8 +- 0.1</t>
+  </si>
+  <si>
+    <t>99.7 +- 0.0</t>
+  </si>
+  <si>
+    <t>95.8 +- 0.6</t>
+  </si>
+  <si>
+    <t>53.5 +- 5.2</t>
+  </si>
+  <si>
+    <t>95.9 +- 0.6</t>
+  </si>
+  <si>
+    <t>48.5 +- 4.3</t>
+  </si>
+  <si>
+    <t>96.0 +- 0.5</t>
+  </si>
+  <si>
+    <t>53.8 +- 5.7</t>
+  </si>
+  <si>
+    <t>58.3 +- 4.4</t>
+  </si>
+  <si>
+    <t>53.7 +- 5.4</t>
+  </si>
+  <si>
+    <t>96.0 +- 0.7</t>
+  </si>
+  <si>
+    <t>60.3 +- 5.6</t>
+  </si>
+  <si>
+    <t>97.1 +- 0.2</t>
+  </si>
+  <si>
+    <t>94.9 +- 0.4</t>
+  </si>
+  <si>
+    <t>96.8 +- 0.2</t>
+  </si>
+  <si>
+    <t>96.3 +- 0.2</t>
   </si>
 </sst>
 </file>
@@ -680,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE614724-CC55-40DB-9D40-ACD55115E362}">
   <dimension ref="G4:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G1:J1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -728,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="K6" s="2">
         <v>71.900000000000006</v>
@@ -745,10 +757,10 @@
         <v>3</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="K7" s="2">
         <v>71.900000000000006</v>
@@ -762,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="K8" s="2">
-        <v>79.7</v>
+        <v>78.599999999999994</v>
       </c>
     </row>
     <row r="9" spans="7:11" x14ac:dyDescent="0.55000000000000004">
@@ -779,13 +791,13 @@
         <v>3</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="K9" s="2">
-        <v>80.3</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="10" spans="7:11" x14ac:dyDescent="0.55000000000000004">
@@ -796,13 +808,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="K10" s="2">
-        <v>80.400000000000006</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="7:11" x14ac:dyDescent="0.55000000000000004">
@@ -813,13 +825,13 @@
         <v>3</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="K11" s="2">
-        <v>81.400000000000006</v>
+        <v>87.3</v>
       </c>
     </row>
     <row r="12" spans="7:11" x14ac:dyDescent="0.55000000000000004">
@@ -830,13 +842,13 @@
         <v>3</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="K12" s="4">
-        <v>95.2</v>
+        <v>94.1</v>
       </c>
     </row>
     <row r="13" spans="7:11" x14ac:dyDescent="0.55000000000000004">
@@ -847,13 +859,13 @@
         <v>9</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="K13" s="4">
-        <v>98.1</v>
+        <v>97.1</v>
       </c>
     </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.55000000000000004">
@@ -886,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="K19" s="2">
         <v>96.8</v>
@@ -903,10 +915,10 @@
         <v>3</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="K20" s="2">
         <v>96.8</v>
@@ -920,10 +932,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="K21" s="2">
         <v>96.8</v>
@@ -937,10 +949,10 @@
         <v>3</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="K22" s="2">
         <v>96.8</v>
@@ -954,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="K23" s="2">
         <v>96.8</v>
@@ -971,10 +983,10 @@
         <v>3</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="K24" s="2">
         <v>96.8</v>
@@ -988,13 +1000,13 @@
         <v>3</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="K25" s="2">
-        <v>97.3</v>
+        <v>97.4</v>
       </c>
     </row>
     <row r="26" spans="7:11" x14ac:dyDescent="0.55000000000000004">
@@ -1005,10 +1017,10 @@
         <v>9</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="K26" s="2">
         <v>96.8</v>
@@ -1024,7 +1036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B8F0B2-BCE6-4497-8D11-DFF491C81EDC}">
   <dimension ref="G4:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
@@ -1082,7 +1094,7 @@
     </row>
     <row r="6" spans="7:17" x14ac:dyDescent="0.55000000000000004">
       <c r="G6" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -1091,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="N6" s="2">
         <v>1</v>
@@ -1106,10 +1118,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="7:17" x14ac:dyDescent="0.55000000000000004">
@@ -1121,10 +1133,10 @@
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="2">
@@ -1134,10 +1146,10 @@
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="7:17" x14ac:dyDescent="0.55000000000000004">
@@ -1149,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7"/>
       <c r="N8" s="2">
@@ -1162,10 +1174,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="7:17" x14ac:dyDescent="0.55000000000000004">
@@ -1177,10 +1189,10 @@
         <v>3</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="M9" s="7"/>
       <c r="N9" s="2">
@@ -1190,10 +1202,10 @@
         <v>3</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="7:17" x14ac:dyDescent="0.55000000000000004">
@@ -1205,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7"/>
       <c r="N10" s="2">
@@ -1218,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="7:17" x14ac:dyDescent="0.55000000000000004">
@@ -1233,10 +1245,10 @@
         <v>3</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="2">
@@ -1246,15 +1258,15 @@
         <v>3</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="7:17" x14ac:dyDescent="0.55000000000000004">
       <c r="G12" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
@@ -1263,13 +1275,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="N12" s="2">
         <v>1</v>
@@ -1278,10 +1290,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="7:17" x14ac:dyDescent="0.55000000000000004">
@@ -1293,10 +1305,10 @@
         <v>3</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="2">
@@ -1306,10 +1318,10 @@
         <v>3</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="7:17" x14ac:dyDescent="0.55000000000000004">
@@ -1321,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="M14" s="7"/>
       <c r="N14" s="2">
@@ -1334,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="7:17" x14ac:dyDescent="0.55000000000000004">
@@ -1349,10 +1361,10 @@
         <v>3</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="M15" s="7"/>
       <c r="N15" s="2">
@@ -1362,10 +1374,10 @@
         <v>3</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="7:17" x14ac:dyDescent="0.55000000000000004">
@@ -1377,10 +1389,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="M16" s="7"/>
       <c r="N16" s="2">
@@ -1390,10 +1402,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="7:17" x14ac:dyDescent="0.55000000000000004">
@@ -1405,10 +1417,10 @@
         <v>3</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="M17" s="7"/>
       <c r="N17" s="2">
@@ -1418,10 +1430,10 @@
         <v>3</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
